--- a/data/financial_statements/soci/WEC.xlsx
+++ b/data/financial_statements/soci/WEC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2003000000</v>
       </c>
       <c r="C2">
-        <v>2128000000</v>
+        <v>2127900000</v>
       </c>
       <c r="D2">
-        <v>2908000000</v>
+        <v>2908100000</v>
       </c>
       <c r="E2">
-        <v>2202000000</v>
+        <v>2201900000</v>
       </c>
       <c r="F2">
-        <v>1747000000</v>
+        <v>1746500000</v>
       </c>
       <c r="G2">
         <v>1676200000</v>
@@ -733,11 +844,11 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.1465</v>
+        <v>0.1469</v>
       </c>
       <c r="C3">
         <v>0.2695</v>
@@ -749,7 +860,7 @@
         <v>0.1389</v>
       </c>
       <c r="F3">
-        <v>0.0581</v>
+        <v>0.0578</v>
       </c>
       <c r="G3">
         <v>0.0823</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1666000000</v>
+        <v>805100000</v>
       </c>
       <c r="C4">
-        <v>1777000000</v>
+        <v>935000000</v>
       </c>
       <c r="D4">
-        <v>2149000000</v>
+        <v>1383400000</v>
       </c>
       <c r="E4">
-        <v>1922000000</v>
+        <v>958799900</v>
       </c>
       <c r="F4">
-        <v>1350000000</v>
+        <v>560700000</v>
       </c>
       <c r="G4">
         <v>525900000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>337000000</v>
+        <v>1197900000</v>
       </c>
       <c r="C5">
-        <v>351000000</v>
+        <v>1192900000</v>
       </c>
       <c r="D5">
-        <v>760000000</v>
+        <v>1524700000</v>
       </c>
       <c r="E5">
-        <v>280000000</v>
+        <v>1243100000</v>
       </c>
       <c r="F5">
-        <v>396000000</v>
+        <v>1185800000</v>
       </c>
       <c r="G5">
         <v>1150300000</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>513400000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>404200100</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>128000000</v>
@@ -1384,8 +1495,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>127500000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>161000000</v>
+        <v>-29100000</v>
       </c>
       <c r="C10">
-        <v>133000000</v>
+        <v>-57000000</v>
       </c>
       <c r="D10">
-        <v>72000000</v>
+        <v>-36300000</v>
       </c>
       <c r="E10">
-        <v>175000000</v>
+        <v>-82500000</v>
       </c>
       <c r="F10">
-        <v>68000000</v>
+        <v>-50500000</v>
       </c>
       <c r="G10">
         <v>-39000000</v>
@@ -1628,23 +1739,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>375000000</v>
+        <v>375100000</v>
       </c>
       <c r="C11">
-        <v>351000000</v>
+        <v>351200000</v>
       </c>
       <c r="D11">
-        <v>695000000</v>
+        <v>695100000</v>
       </c>
       <c r="E11">
-        <v>244000000</v>
+        <v>244300000</v>
       </c>
       <c r="F11">
-        <v>340000000</v>
+        <v>339500000</v>
       </c>
       <c r="G11">
         <v>329800000</v>
@@ -1750,23 +1861,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>73000000</v>
+        <v>73400000</v>
       </c>
       <c r="C12">
-        <v>63000000</v>
+        <v>63400000</v>
       </c>
       <c r="D12">
-        <v>127000000</v>
+        <v>127100000</v>
       </c>
       <c r="E12">
-        <v>21000000</v>
+        <v>20500000</v>
       </c>
       <c r="F12">
-        <v>51000000</v>
+        <v>50800000</v>
       </c>
       <c r="G12">
         <v>54100000</v>
@@ -1872,8 +1983,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>301700000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>300000</v>
@@ -2098,8 +2209,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-600000</v>
@@ -2154,20 +2265,20 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>302000000</v>
       </c>
       <c r="C16">
-        <v>288000000</v>
+        <v>287500000</v>
       </c>
       <c r="D16">
-        <v>566000000</v>
+        <v>565900000</v>
       </c>
       <c r="E16">
-        <v>224000000</v>
+        <v>224200000</v>
       </c>
       <c r="F16">
         <v>290000000</v>
@@ -2276,8 +2387,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0.96</v>
@@ -2398,8 +2509,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.96</v>
@@ -2520,23 +2631,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>315000000</v>
+        <v>315400000</v>
       </c>
       <c r="C19">
-        <v>315000000</v>
+        <v>315400000</v>
       </c>
       <c r="D19">
-        <v>315000000</v>
+        <v>315400000</v>
       </c>
       <c r="E19">
-        <v>315000000</v>
+        <v>315400000</v>
       </c>
       <c r="F19">
-        <v>315000000</v>
+        <v>315400000</v>
       </c>
       <c r="G19">
         <v>315400000</v>
@@ -2642,23 +2753,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>316000000</v>
+        <v>316200000</v>
       </c>
       <c r="C20">
-        <v>316000000</v>
+        <v>316200000</v>
       </c>
       <c r="D20">
-        <v>316000000</v>
+        <v>316200000</v>
       </c>
       <c r="E20">
-        <v>316000000</v>
+        <v>316300000</v>
       </c>
       <c r="F20">
-        <v>316000000</v>
+        <v>316300000</v>
       </c>
       <c r="G20">
         <v>316300000</v>
@@ -2764,23 +2875,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.1682</v>
+        <v>0.5981</v>
       </c>
       <c r="C21">
-        <v>0.1649</v>
+        <v>0.5606</v>
       </c>
       <c r="D21">
-        <v>0.2613</v>
+        <v>0.5243</v>
       </c>
       <c r="E21">
-        <v>0.1272</v>
+        <v>0.5646</v>
       </c>
       <c r="F21">
-        <v>0.2267</v>
+        <v>0.679</v>
       </c>
       <c r="G21">
         <v>0.6863</v>
@@ -2886,8 +2997,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.2018</v>
@@ -2902,7 +3013,7 @@
         <v>0.1484</v>
       </c>
       <c r="F22">
-        <v>0.2232</v>
+        <v>0.2233</v>
       </c>
       <c r="G22">
         <v>0.22</v>
@@ -3008,23 +3119,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.1872</v>
+        <v>0.1873</v>
       </c>
       <c r="C23">
-        <v>0.1649</v>
+        <v>0.165</v>
       </c>
       <c r="D23">
         <v>0.239</v>
       </c>
       <c r="E23">
-        <v>0.1108</v>
+        <v>0.1109</v>
       </c>
       <c r="F23">
-        <v>0.1946</v>
+        <v>0.1944</v>
       </c>
       <c r="G23">
         <v>0.1968</v>
@@ -3130,20 +3241,20 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.1508</v>
       </c>
       <c r="C24">
-        <v>0.1353</v>
+        <v>0.1351</v>
       </c>
       <c r="D24">
         <v>0.1946</v>
       </c>
       <c r="E24">
-        <v>0.1017</v>
+        <v>0.1018</v>
       </c>
       <c r="F24">
         <v>0.166</v>
@@ -3252,23 +3363,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>558000000</v>
+        <v>684500100</v>
       </c>
       <c r="C25">
-        <v>575000000</v>
+        <v>687799900</v>
       </c>
       <c r="D25">
-        <v>977000000</v>
+        <v>1009500000</v>
       </c>
       <c r="E25">
-        <v>502000000</v>
+        <v>601900300</v>
       </c>
       <c r="F25">
-        <v>617000000</v>
+        <v>661600000</v>
       </c>
       <c r="G25">
         <v>634999900</v>
@@ -3374,8 +3485,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>404200100</v>
@@ -3496,8 +3607,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>301700000</v>
@@ -3618,23 +3729,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>302000000</v>
+        <v>301700000</v>
       </c>
       <c r="C28">
-        <v>288000000</v>
+        <v>287800000</v>
       </c>
       <c r="D28">
         <v>568000000</v>
       </c>
       <c r="E28">
-        <v>224000000</v>
+        <v>223800000</v>
       </c>
       <c r="F28">
-        <v>289000000</v>
+        <v>288700000</v>
       </c>
       <c r="G28">
         <v>275700000</v>
@@ -3740,8 +3851,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0.9566</v>
@@ -3862,8 +3973,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.9540999999999999</v>
@@ -3984,8 +4095,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.9566</v>
@@ -4106,8 +4217,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.9540999999999999</v>
@@ -4228,8 +4339,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>316200000</v>
@@ -4350,23 +4461,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.2786</v>
+        <v>0.3417</v>
       </c>
       <c r="C34">
-        <v>0.2702</v>
+        <v>0.3232</v>
       </c>
       <c r="D34">
-        <v>0.336</v>
+        <v>0.3471</v>
       </c>
       <c r="E34">
-        <v>0.228</v>
+        <v>0.2734</v>
       </c>
       <c r="F34">
-        <v>0.3532</v>
+        <v>0.3788</v>
       </c>
       <c r="G34">
         <v>0.3788</v>
@@ -4472,8 +4583,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.1482</v>
@@ -4488,7 +4599,7 @@
         <v>0.0118</v>
       </c>
       <c r="F35">
-        <v>0.4468</v>
+        <v>0.4469</v>
       </c>
       <c r="G35">
         <v>0.4958</v>
